--- a/meetings_dumped/schmit.xlsx
+++ b/meetings_dumped/schmit.xlsx
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C103" s="1053" t="inlineStr">
         <is>
-          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
+          <t>Industriegewerkschaft Metall</t>
         </is>
       </c>
       <c r="D103" s="1053" t="inlineStr">
         <is>
-          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
+          <t xml:space="preserve">Exchange on ongoing files in social policy. </t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C104" s="1053" t="inlineStr">
         <is>
-          <t>Industriegewerkschaft Metall</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="D104" s="1053" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="C105" s="1053" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
         </is>
       </c>
       <c r="D105" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exchange on ongoing files in social policy. </t>
+          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
         </is>
       </c>
     </row>
@@ -6293,17 +6293,17 @@
       </c>
       <c r="B118" s="1053" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="C118" s="1053" t="inlineStr">
         <is>
-          <t>Association Internationale de la Mutualité</t>
+          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
         </is>
       </c>
       <c r="D118" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
+          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
         </is>
       </c>
     </row>
@@ -6315,17 +6315,17 @@
       </c>
       <c r="B119" s="1053" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="C119" s="1053" t="inlineStr">
         <is>
-          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
+          <t>Association Internationale de la Mutualité</t>
         </is>
       </c>
       <c r="D119" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
+          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="C124" s="1053" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="D124" s="1053" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C125" s="1053" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Bolt</t>
         </is>
       </c>
       <c r="D125" s="1053" t="inlineStr">
@@ -6804,12 +6804,12 @@
       </c>
       <c r="C141" s="1053" t="inlineStr">
         <is>
-          <t>Workday</t>
+          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="D141" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on the Pact for Skills and other workforce development initiatives.</t>
+          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="C142" s="1053" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>Workday</t>
         </is>
       </c>
       <c r="D142" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
+          <t>Meeting on the Pact for Skills and other workforce development initiatives.</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="C166" s="1053" t="inlineStr">
         <is>
-          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
+          <t>European Federation of Nurses Associations</t>
         </is>
       </c>
       <c r="D166" s="1053" t="inlineStr">
         <is>
-          <t>Pact for Skills roundtable with the construction sector.</t>
+          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
         </is>
       </c>
     </row>
@@ -7376,12 +7376,12 @@
       </c>
       <c r="C167" s="1053" t="inlineStr">
         <is>
-          <t>European Federation of Nurses Associations</t>
+          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
         </is>
       </c>
       <c r="D167" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
+          <t>Pact for Skills roundtable with the construction sector.</t>
         </is>
       </c>
     </row>
@@ -7420,12 +7420,12 @@
       </c>
       <c r="C169" s="1053" t="inlineStr">
         <is>
-          <t>European Transport Workers' Federation</t>
+          <t>Boerenbond vzw</t>
         </is>
       </c>
       <c r="D169" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on precarious work, atypical contracts, bogus self-employment, temporary work agencies and social dumping.</t>
+          <t>Meeting on social security and seasonal workers.</t>
         </is>
       </c>
     </row>
@@ -7442,12 +7442,12 @@
       </c>
       <c r="C170" s="1053" t="inlineStr">
         <is>
-          <t>Boerenbond vzw</t>
+          <t>European Transport Workers' Federation</t>
         </is>
       </c>
       <c r="D170" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on social security and seasonal workers.</t>
+          <t>Meeting on precarious work, atypical contracts, bogus self-employment, temporary work agencies and social dumping.</t>
         </is>
       </c>
     </row>
@@ -7812,17 +7812,17 @@
       </c>
       <c r="B187" s="1053" t="inlineStr">
         <is>
-          <t>Videoonference</t>
+          <t xml:space="preserve">Phone call </t>
         </is>
       </c>
       <c r="C187" s="1053" t="inlineStr">
         <is>
-          <t>Bolt, Industriegewerkschaft Metall, Universität Wien, Fagligt Fælles Forbund, Katholieke Universiteit te Leuven, Just Eat Takeaway.com N.V., clickworker GmbH, Smart</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="D187" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roundtable on platform work.   </t>
+          <t xml:space="preserve"> Phone call on social policies and social dialogue.</t>
         </is>
       </c>
     </row>
@@ -7834,17 +7834,17 @@
       </c>
       <c r="B188" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phone call </t>
+          <t>Videoonference</t>
         </is>
       </c>
       <c r="C188" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Bolt, Industriegewerkschaft Metall, Universität Wien, Fagligt Fælles Forbund, Katholieke Universiteit te Leuven, Just Eat Takeaway.com N.V., clickworker GmbH, Smart</t>
         </is>
       </c>
       <c r="D188" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phone call on social policies and social dialogue.</t>
+          <t xml:space="preserve">Roundtable on platform work.   </t>
         </is>
       </c>
     </row>
@@ -7949,12 +7949,12 @@
       </c>
       <c r="C193" s="1053" t="inlineStr">
         <is>
-          <t>SES S.A.</t>
+          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
         </is>
       </c>
       <c r="D193" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentation of the SES activities. </t>
+          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
         </is>
       </c>
     </row>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="C194" s="1053" t="inlineStr">
         <is>
-          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
+          <t>SES S.A.</t>
         </is>
       </c>
       <c r="D194" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
+          <t xml:space="preserve">Presentation of the SES activities. </t>
         </is>
       </c>
     </row>
@@ -8120,17 +8120,17 @@
       </c>
       <c r="B201" s="1053" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="C201" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Eurochild AISBL</t>
         </is>
       </c>
       <c r="D201" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting with the Social Affairs Committee of BusinessEurope on the Commission’s response to the COVID-19 crisis in the area of employment and social right.   </t>
+          <t>Opening of the Eurochild Webinar “Child Guarantee: It’s Happening!” followed by a Question and Answer session.</t>
         </is>
       </c>
     </row>
@@ -8142,17 +8142,17 @@
       </c>
       <c r="B202" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="C202" s="1053" t="inlineStr">
         <is>
-          <t>Eurochild AISBL</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="D202" s="1053" t="inlineStr">
         <is>
-          <t>Opening of the Eurochild Webinar “Child Guarantee: It’s Happening!” followed by a Question and Answer session.</t>
+          <t xml:space="preserve">Meeting with the Social Affairs Committee of BusinessEurope on the Commission’s response to the COVID-19 crisis in the area of employment and social right.   </t>
         </is>
       </c>
     </row>
@@ -8296,17 +8296,17 @@
       </c>
       <c r="B209" s="1053" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Vidéoconférence </t>
         </is>
       </c>
       <c r="C209" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>Le Labo de l'Economie Sociale et Solidaire, Territoires zéro chômeur de longue durée</t>
         </is>
       </c>
       <c r="D209" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
+          <t xml:space="preserve">Vidéoconférence sur la lutte contre le chômage de longue durée. </t>
         </is>
       </c>
     </row>
@@ -8318,17 +8318,17 @@
       </c>
       <c r="B210" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="C210" s="1053" t="inlineStr">
         <is>
-          <t>The Adecco Group</t>
+          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="D210" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
+          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
         </is>
       </c>
     </row>
@@ -8340,17 +8340,17 @@
       </c>
       <c r="B211" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidéoconférence </t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="C211" s="1053" t="inlineStr">
         <is>
-          <t>Le Labo de l'Economie Sociale et Solidaire, Territoires zéro chômeur de longue durée</t>
+          <t>The Adecco Group</t>
         </is>
       </c>
       <c r="D211" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidéoconférence sur la lutte contre le chômage de longue durée. </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
         </is>
       </c>
     </row>
@@ -8477,12 +8477,13 @@
       </c>
       <c r="C217" s="1053" t="inlineStr">
         <is>
-          <t>Volkswagen Aktiengesellschaft</t>
+          <t>The Institute of International and European Affairs, Brussels</t>
         </is>
       </c>
       <c r="D217" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
+          <t xml:space="preserve">IIEA online conference "The EU's social agenda, in particular in light of the COVID-19 pandemic and the EU's post-crisis
+recovery". </t>
         </is>
       </c>
     </row>
@@ -8499,13 +8500,12 @@
       </c>
       <c r="C218" s="1053" t="inlineStr">
         <is>
-          <t>The Institute of International and European Affairs, Brussels</t>
+          <t>Volkswagen Aktiengesellschaft</t>
         </is>
       </c>
       <c r="D218" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">IIEA online conference "The EU's social agenda, in particular in light of the COVID-19 pandemic and the EU's post-crisis
-recovery". </t>
+          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
         </is>
       </c>
     </row>
@@ -8544,12 +8544,12 @@
       </c>
       <c r="C220" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>Assemblée des Régions d'Europe</t>
         </is>
       </c>
       <c r="D220" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the Recovery Plan.  </t>
+          <t xml:space="preserve">Videoconference on the employment and social impact of Covid-19. </t>
         </is>
       </c>
     </row>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="C221" s="1053" t="inlineStr">
         <is>
-          <t>Assemblée des Régions d'Europe</t>
+          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="D221" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the employment and social impact of Covid-19. </t>
+          <t xml:space="preserve">Videoconference on the Recovery Plan.  </t>
         </is>
       </c>
     </row>
@@ -9045,17 +9045,17 @@
       </c>
       <c r="B243" s="1053" t="inlineStr">
         <is>
-          <t>Bruxelles</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="C243" s="1053" t="inlineStr">
         <is>
-          <t>Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D243" s="1053" t="inlineStr">
         <is>
-          <t>Social agenda</t>
+          <t>Skills</t>
         </is>
       </c>
     </row>
@@ -9067,17 +9067,17 @@
       </c>
       <c r="B244" s="1053" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bruxelles</t>
         </is>
       </c>
       <c r="C244" s="1053" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
         </is>
       </c>
       <c r="D244" s="1053" t="inlineStr">
         <is>
-          <t>Skills</t>
+          <t>Social agenda</t>
         </is>
       </c>
     </row>
@@ -9116,12 +9116,12 @@
       </c>
       <c r="C246" s="1053" t="inlineStr">
         <is>
-          <t>Confederazione Generale Italiana del Lavoro</t>
+          <t>INCO.ORG</t>
         </is>
       </c>
       <c r="D246" s="1053" t="inlineStr">
         <is>
-          <t>Minimum wage</t>
+          <t>Economie Sociale</t>
         </is>
       </c>
     </row>
@@ -9138,12 +9138,12 @@
       </c>
       <c r="C247" s="1053" t="inlineStr">
         <is>
-          <t>INCO.ORG</t>
+          <t>Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
       <c r="D247" s="1053" t="inlineStr">
         <is>
-          <t>Economie Sociale</t>
+          <t>Minimum wage</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="C248" s="1053" t="inlineStr">
         <is>
-          <t>PwCIL</t>
+          <t>World Economic Forum</t>
         </is>
       </c>
       <c r="D248" s="1053" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="C250" s="1053" t="inlineStr">
         <is>
-          <t>World Economic Forum</t>
+          <t>PwCIL</t>
         </is>
       </c>
       <c r="D250" s="1053" t="inlineStr">
@@ -9248,12 +9248,12 @@
       </c>
       <c r="C252" s="1053" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="D252" s="1053" t="inlineStr">
         <is>
-          <t>European Industry</t>
+          <t>Social Policies</t>
         </is>
       </c>
     </row>
@@ -9270,12 +9270,12 @@
       </c>
       <c r="C253" s="1053" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="D253" s="1053" t="inlineStr">
         <is>
-          <t>Social Policies</t>
+          <t>European Industry</t>
         </is>
       </c>
     </row>

--- a/meetings_dumped/schmit.xlsx
+++ b/meetings_dumped/schmit.xlsx
@@ -5965,12 +5965,12 @@
       </c>
       <c r="C103" s="1053" t="inlineStr">
         <is>
-          <t>Industriegewerkschaft Metall</t>
+          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
         </is>
       </c>
       <c r="D103" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exchange on ongoing files in social policy. </t>
+          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="C104" s="1053" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Industriegewerkschaft Metall</t>
         </is>
       </c>
       <c r="D104" s="1053" t="inlineStr">
@@ -6009,12 +6009,12 @@
       </c>
       <c r="C105" s="1053" t="inlineStr">
         <is>
-          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="D105" s="1053" t="inlineStr">
         <is>
-          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
+          <t xml:space="preserve">Exchange on ongoing files in social policy. </t>
         </is>
       </c>
     </row>
@@ -6293,17 +6293,17 @@
       </c>
       <c r="B118" s="1053" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="C118" s="1053" t="inlineStr">
         <is>
-          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
+          <t>Association Internationale de la Mutualité</t>
         </is>
       </c>
       <c r="D118" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
+          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
         </is>
       </c>
     </row>
@@ -6315,17 +6315,17 @@
       </c>
       <c r="B119" s="1053" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="C119" s="1053" t="inlineStr">
         <is>
-          <t>Association Internationale de la Mutualité</t>
+          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
         </is>
       </c>
       <c r="D119" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
+          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="C124" s="1053" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Bolt</t>
         </is>
       </c>
       <c r="D124" s="1053" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C125" s="1053" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="D125" s="1053" t="inlineStr">
@@ -6804,12 +6804,12 @@
       </c>
       <c r="C141" s="1053" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>Workday</t>
         </is>
       </c>
       <c r="D141" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
+          <t>Meeting on the Pact for Skills and other workforce development initiatives.</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="C142" s="1053" t="inlineStr">
         <is>
-          <t>Workday</t>
+          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="D142" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on the Pact for Skills and other workforce development initiatives.</t>
+          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
         </is>
       </c>
     </row>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="C166" s="1053" t="inlineStr">
         <is>
-          <t>European Federation of Nurses Associations</t>
+          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
         </is>
       </c>
       <c r="D166" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
+          <t>Pact for Skills roundtable with the construction sector.</t>
         </is>
       </c>
     </row>
@@ -7376,12 +7376,12 @@
       </c>
       <c r="C167" s="1053" t="inlineStr">
         <is>
-          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
+          <t>European Federation of Nurses Associations</t>
         </is>
       </c>
       <c r="D167" s="1053" t="inlineStr">
         <is>
-          <t>Pact for Skills roundtable with the construction sector.</t>
+          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
         </is>
       </c>
     </row>
@@ -7420,12 +7420,12 @@
       </c>
       <c r="C169" s="1053" t="inlineStr">
         <is>
-          <t>Boerenbond vzw</t>
+          <t>European Transport Workers' Federation</t>
         </is>
       </c>
       <c r="D169" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on social security and seasonal workers.</t>
+          <t>Meeting on precarious work, atypical contracts, bogus self-employment, temporary work agencies and social dumping.</t>
         </is>
       </c>
     </row>
@@ -7442,12 +7442,12 @@
       </c>
       <c r="C170" s="1053" t="inlineStr">
         <is>
-          <t>European Transport Workers' Federation</t>
+          <t>Boerenbond vzw</t>
         </is>
       </c>
       <c r="D170" s="1053" t="inlineStr">
         <is>
-          <t>Meeting on precarious work, atypical contracts, bogus self-employment, temporary work agencies and social dumping.</t>
+          <t>Meeting on social security and seasonal workers.</t>
         </is>
       </c>
     </row>
@@ -7812,17 +7812,17 @@
       </c>
       <c r="B187" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phone call </t>
+          <t>Videoonference</t>
         </is>
       </c>
       <c r="C187" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Bolt, Industriegewerkschaft Metall, Universität Wien, Fagligt Fælles Forbund, Katholieke Universiteit te Leuven, Just Eat Takeaway.com N.V., clickworker GmbH, Smart</t>
         </is>
       </c>
       <c r="D187" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phone call on social policies and social dialogue.</t>
+          <t xml:space="preserve">Roundtable on platform work.   </t>
         </is>
       </c>
     </row>
@@ -7834,17 +7834,17 @@
       </c>
       <c r="B188" s="1053" t="inlineStr">
         <is>
-          <t>Videoonference</t>
+          <t xml:space="preserve">Phone call </t>
         </is>
       </c>
       <c r="C188" s="1053" t="inlineStr">
         <is>
-          <t>Bolt, Industriegewerkschaft Metall, Universität Wien, Fagligt Fælles Forbund, Katholieke Universiteit te Leuven, Just Eat Takeaway.com N.V., clickworker GmbH, Smart</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="D188" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roundtable on platform work.   </t>
+          <t xml:space="preserve"> Phone call on social policies and social dialogue.</t>
         </is>
       </c>
     </row>
@@ -7949,12 +7949,12 @@
       </c>
       <c r="C193" s="1053" t="inlineStr">
         <is>
-          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
+          <t>SES S.A.</t>
         </is>
       </c>
       <c r="D193" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
+          <t xml:space="preserve">Presentation of the SES activities. </t>
         </is>
       </c>
     </row>
@@ -7971,12 +7971,12 @@
       </c>
       <c r="C194" s="1053" t="inlineStr">
         <is>
-          <t>SES S.A.</t>
+          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
         </is>
       </c>
       <c r="D194" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentation of the SES activities. </t>
+          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
         </is>
       </c>
     </row>
@@ -8120,17 +8120,17 @@
       </c>
       <c r="B201" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="C201" s="1053" t="inlineStr">
         <is>
-          <t>Eurochild AISBL</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="D201" s="1053" t="inlineStr">
         <is>
-          <t>Opening of the Eurochild Webinar “Child Guarantee: It’s Happening!” followed by a Question and Answer session.</t>
+          <t xml:space="preserve">Meeting with the Social Affairs Committee of BusinessEurope on the Commission’s response to the COVID-19 crisis in the area of employment and social right.   </t>
         </is>
       </c>
     </row>
@@ -8142,17 +8142,17 @@
       </c>
       <c r="B202" s="1053" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="C202" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>Eurochild AISBL</t>
         </is>
       </c>
       <c r="D202" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting with the Social Affairs Committee of BusinessEurope on the Commission’s response to the COVID-19 crisis in the area of employment and social right.   </t>
+          <t>Opening of the Eurochild Webinar “Child Guarantee: It’s Happening!” followed by a Question and Answer session.</t>
         </is>
       </c>
     </row>
@@ -8296,17 +8296,17 @@
       </c>
       <c r="B209" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidéoconférence </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="C209" s="1053" t="inlineStr">
         <is>
-          <t>Le Labo de l'Economie Sociale et Solidaire, Territoires zéro chômeur de longue durée</t>
+          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="D209" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vidéoconférence sur la lutte contre le chômage de longue durée. </t>
+          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
         </is>
       </c>
     </row>
@@ -8318,17 +8318,17 @@
       </c>
       <c r="B210" s="1053" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="C210" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>The Adecco Group</t>
         </is>
       </c>
       <c r="D210" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
         </is>
       </c>
     </row>
@@ -8340,17 +8340,17 @@
       </c>
       <c r="B211" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t xml:space="preserve">Vidéoconférence </t>
         </is>
       </c>
       <c r="C211" s="1053" t="inlineStr">
         <is>
-          <t>The Adecco Group</t>
+          <t>Le Labo de l'Economie Sociale et Solidaire, Territoires zéro chômeur de longue durée</t>
         </is>
       </c>
       <c r="D211" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
+          <t xml:space="preserve">Vidéoconférence sur la lutte contre le chômage de longue durée. </t>
         </is>
       </c>
     </row>
@@ -8477,38 +8477,38 @@
       </c>
       <c r="C217" s="1053" t="inlineStr">
         <is>
+          <t>Volkswagen Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="D217" s="1053" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1050" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="B218" s="1053" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Videoconference </t>
+        </is>
+      </c>
+      <c r="C218" s="1053" t="inlineStr">
+        <is>
           <t>The Institute of International and European Affairs, Brussels</t>
         </is>
       </c>
-      <c r="D217" s="1053" t="inlineStr">
+      <c r="D218" s="1053" t="inlineStr">
         <is>
           <t xml:space="preserve">IIEA online conference "The EU's social agenda, in particular in light of the COVID-19 pandemic and the EU's post-crisis
 recovery". </t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1050" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
-      </c>
-      <c r="B218" s="1053" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Videoconference </t>
-        </is>
-      </c>
-      <c r="C218" s="1053" t="inlineStr">
-        <is>
-          <t>Volkswagen Aktiengesellschaft</t>
-        </is>
-      </c>
-      <c r="D218" s="1053" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
-        </is>
-      </c>
-    </row>
     <row r="219">
       <c r="A219" s="1050" t="inlineStr">
         <is>
@@ -8544,12 +8544,12 @@
       </c>
       <c r="C220" s="1053" t="inlineStr">
         <is>
-          <t>Assemblée des Régions d'Europe</t>
+          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="D220" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the employment and social impact of Covid-19. </t>
+          <t xml:space="preserve">Videoconference on the Recovery Plan.  </t>
         </is>
       </c>
     </row>
@@ -8566,12 +8566,12 @@
       </c>
       <c r="C221" s="1053" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>Assemblée des Régions d'Europe</t>
         </is>
       </c>
       <c r="D221" s="1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the Recovery Plan.  </t>
+          <t xml:space="preserve">Videoconference on the employment and social impact of Covid-19. </t>
         </is>
       </c>
     </row>
@@ -9045,17 +9045,17 @@
       </c>
       <c r="B243" s="1053" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bruxelles</t>
         </is>
       </c>
       <c r="C243" s="1053" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
         </is>
       </c>
       <c r="D243" s="1053" t="inlineStr">
         <is>
-          <t>Skills</t>
+          <t>Social agenda</t>
         </is>
       </c>
     </row>
@@ -9067,17 +9067,17 @@
       </c>
       <c r="B244" s="1053" t="inlineStr">
         <is>
-          <t>Bruxelles</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="C244" s="1053" t="inlineStr">
         <is>
-          <t>Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
+          <t>Google</t>
         </is>
       </c>
       <c r="D244" s="1053" t="inlineStr">
         <is>
-          <t>Social agenda</t>
+          <t>Skills</t>
         </is>
       </c>
     </row>
@@ -9116,12 +9116,12 @@
       </c>
       <c r="C246" s="1053" t="inlineStr">
         <is>
-          <t>INCO.ORG</t>
+          <t>Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
       <c r="D246" s="1053" t="inlineStr">
         <is>
-          <t>Economie Sociale</t>
+          <t>Minimum wage</t>
         </is>
       </c>
     </row>
@@ -9138,12 +9138,12 @@
       </c>
       <c r="C247" s="1053" t="inlineStr">
         <is>
-          <t>Confederazione Generale Italiana del Lavoro</t>
+          <t>INCO.ORG</t>
         </is>
       </c>
       <c r="D247" s="1053" t="inlineStr">
         <is>
-          <t>Minimum wage</t>
+          <t>Economie Sociale</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="C248" s="1053" t="inlineStr">
         <is>
-          <t>World Economic Forum</t>
+          <t>PwCIL</t>
         </is>
       </c>
       <c r="D248" s="1053" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="C250" s="1053" t="inlineStr">
         <is>
-          <t>PwCIL</t>
+          <t>World Economic Forum</t>
         </is>
       </c>
       <c r="D250" s="1053" t="inlineStr">
@@ -9248,12 +9248,12 @@
       </c>
       <c r="C252" s="1053" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="D252" s="1053" t="inlineStr">
         <is>
-          <t>Social Policies</t>
+          <t>European Industry</t>
         </is>
       </c>
     </row>
@@ -9270,12 +9270,12 @@
       </c>
       <c r="C253" s="1053" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="D253" s="1053" t="inlineStr">
         <is>
-          <t>European Industry</t>
+          <t>Social Policies</t>
         </is>
       </c>
     </row>
